--- a/R/aws_workload.xlsx
+++ b/R/aws_workload.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -366,102 +366,252 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>759.9450000000001</v>
+        <v>61.282</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>760.224</v>
+        <v>83.57599999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>790.448</v>
+        <v>37.157</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>744.852</v>
+        <v>50.238</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>754.157</v>
+        <v>47.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>750.1420000000001</v>
+        <v>40.205</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>723.5890000000001</v>
+        <v>49.232</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>753.3390000000001</v>
+        <v>71.498</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>822.367</v>
+        <v>49.453</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>762.845</v>
+        <v>44.9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>762.151</v>
+        <v>48.39</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>736.85</v>
+        <v>73.40000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>756.2569999999999</v>
+        <v>53.499</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>762.556</v>
+        <v>42.074</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>736.402</v>
+        <v>76.57599999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>706.114</v>
+        <v>45.243</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>703.242</v>
+        <v>34.415</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>752.527</v>
+        <v>62.404</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>735.453</v>
+        <v>65.798</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>766.101</v>
+        <v>32.411</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>43.032</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>47.234</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>72.357</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>50.451</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>41.484</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>49.435</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>58.307</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>52.263</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>86.458</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>44.192</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>39.266</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>37.196</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>184.721</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>62.301</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>52.272</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>67.59999999999999</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>45.246</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>58.305</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>73.557</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>49.226</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>37.184</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>70.587</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>60.282</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>54.298</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>73.797</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>86.66800000000001</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>45.199</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>32.252</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>63.325</v>
       </c>
     </row>
   </sheetData>
